--- a/RAW_PUBLIC/JuneSales2025_public.xlsx
+++ b/RAW_PUBLIC/JuneSales2025_public.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0010870</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0010871</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -665,7 +665,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0010872</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0010873</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -811,7 +811,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0010873</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0010874</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0010875</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0010876</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0010877</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1170,7 +1170,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0010877</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1241,7 +1241,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0010878</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0010878</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0010879</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1454,7 +1454,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0010880</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1525,7 +1525,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0010881</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0010882</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0010883</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1738,7 +1738,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0010884</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0010885</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0010886</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1955,7 +1955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0010886</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0010887</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2097,7 +2097,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0010888</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2168,7 +2168,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0010889</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2239,7 +2239,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0010890</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2310,7 +2310,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0010890</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2381,7 +2381,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0010891</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0010892</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2523,7 +2523,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0010893</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2594,7 +2594,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0010894</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2665,7 +2665,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0010895</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0010896</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2811,7 +2811,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0010896</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0010896</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0010896</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3024,7 +3024,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0010896</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3095,7 +3095,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0010897</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3166,7 +3166,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0010897</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3237,7 +3237,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0010898</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3308,7 +3308,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0010898</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3379,7 +3379,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0010899</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3450,7 +3450,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0010899</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3521,7 +3521,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0010900</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0010901</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0010902</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3734,7 +3734,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0010903</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3805,7 +3805,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0010904</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0010905</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3951,7 +3951,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0010905</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4022,7 +4022,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0010906</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4093,7 +4093,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0010907</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0010908</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4239,7 +4239,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0010909</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4310,7 +4310,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0010910</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4381,7 +4381,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0010911</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4452,7 +4452,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0010912</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4523,7 +4523,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0010913</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0010914</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4665,7 +4665,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0010915</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4740,7 +4740,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0010915</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4815,7 +4815,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0010915</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0010916</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4961,7 +4961,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0010916</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0010917</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5103,7 +5103,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0010918</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5174,7 +5174,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0010919</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5245,7 +5245,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0010920</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0010921</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5387,7 +5387,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0010921</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0010922</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5529,7 +5529,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0010923</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5600,7 +5600,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0010924</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5671,7 +5671,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0010925</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5742,7 +5742,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0010926</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5813,7 +5813,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0010927</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0010928</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5955,7 +5955,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0010929</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0010930</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6101,7 +6101,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0010931</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0010932</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6247,7 +6247,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0010933</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0010934</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6389,7 +6389,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0010935</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0010936</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6535,7 +6535,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0010937</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6606,7 +6606,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0010938</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6677,7 +6677,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0010938</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6748,7 +6748,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0010939</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6819,7 +6819,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0010940</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6890,7 +6890,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0010941</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6961,7 +6961,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0010941</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7032,7 +7032,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0010941</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7103,7 +7103,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0010942</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7174,7 +7174,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0010942</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7245,7 +7245,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0010943</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7316,7 +7316,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0010943</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7387,7 +7387,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0010944</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7458,7 +7458,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0010945</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7533,7 +7533,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0010946</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7604,7 +7604,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0010947</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7675,7 +7675,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0010948</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7746,7 +7746,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0010949</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7817,7 +7817,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0010950</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0010951</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7959,7 +7959,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0010952</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8030,7 +8030,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0010953</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8101,7 +8101,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0010954</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8172,7 +8172,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0010955</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8243,7 +8243,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0010955</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8314,7 +8314,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0010956</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8385,7 +8385,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0010957</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8456,7 +8456,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0010958</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8527,7 +8527,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0010959</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8598,7 +8598,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0010960</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8669,7 +8669,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0010961</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8740,7 +8740,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0010962</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8811,7 +8811,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0010963</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8882,7 +8882,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0010964</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8953,7 +8953,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0010965</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9024,7 +9024,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0010966</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9095,7 +9095,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0010967</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9166,7 +9166,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0010968</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9237,7 +9237,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0010969</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9308,7 +9308,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0010970</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9379,7 +9379,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0010971</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9450,7 +9450,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0010971</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9521,7 +9521,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0010971</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9592,7 +9592,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0010971</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9663,7 +9663,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0010971</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9734,7 +9734,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0010972</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9805,7 +9805,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0010973</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9876,7 +9876,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0010974</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9947,7 +9947,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0010975</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10022,7 +10022,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0010976</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10097,7 +10097,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0010977</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10168,7 +10168,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0010978</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10239,7 +10239,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0010979</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10314,7 +10314,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0010980</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10389,7 +10389,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0010981</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10460,7 +10460,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0010982</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10531,7 +10531,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0010983</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10602,7 +10602,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0010984</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10677,7 +10677,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0010984</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10752,7 +10752,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0010984</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10827,7 +10827,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0010985</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10898,7 +10898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0010986</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10969,7 +10969,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0010987</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11040,7 +11040,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0010988</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11111,7 +11111,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0010988</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11182,7 +11182,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0010989</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11257,7 +11257,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0010990</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11328,7 +11328,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0010990</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11399,7 +11399,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0010991</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -11470,7 +11470,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0010992</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -11545,7 +11545,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0010993</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11616,7 +11616,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0010994</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -11687,7 +11687,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0010995</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -11758,7 +11758,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0010995</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -11829,7 +11829,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0010996</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11904,7 +11904,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0010997</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11975,7 +11975,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0010997</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -12046,7 +12046,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0010998</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -12117,7 +12117,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0010998</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -12188,7 +12188,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0010998</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -12259,7 +12259,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0010998</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12330,7 +12330,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0010998</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12401,7 +12401,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0010999</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12472,7 +12472,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0011000</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -12543,7 +12543,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0011001</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -12614,7 +12614,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0011002</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -12685,7 +12685,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0011003</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -12756,7 +12756,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0011004</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12827,7 +12827,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0011004</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12898,7 +12898,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0011004</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12969,7 +12969,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0011005</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -13040,7 +13040,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0011006</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -13111,7 +13111,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0011007</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -13182,7 +13182,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0011007</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -13253,7 +13253,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0011008</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13324,7 +13324,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0011009</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13395,7 +13395,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0011009</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13466,7 +13466,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0011010</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13537,7 +13537,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0011011</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13608,7 +13608,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0011011</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13679,7 +13679,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0011011</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13750,7 +13750,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0011012</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13821,7 +13821,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0011013</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13896,7 +13896,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0011014</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13967,7 +13967,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011015</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -14038,7 +14038,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011016</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -14109,7 +14109,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0011017</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -14180,7 +14180,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0011017</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -14251,7 +14251,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0011018</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -14322,7 +14322,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0011019</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -14393,7 +14393,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0011019</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -14464,7 +14464,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0011020</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -14535,7 +14535,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -14606,7 +14606,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -14677,7 +14677,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14748,7 +14748,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -14819,7 +14819,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14890,7 +14890,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14961,7 +14961,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -15032,7 +15032,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -15103,7 +15103,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -15174,7 +15174,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011021</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -15245,7 +15245,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0011022</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -15316,7 +15316,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0011023</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -15387,7 +15387,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0011024</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -15458,7 +15458,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0011025</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -15529,7 +15529,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0011025</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -15600,7 +15600,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0011026</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -15671,7 +15671,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0011027</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15742,7 +15742,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0011028</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15813,7 +15813,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0011029</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15888,7 +15888,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0011030</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15959,7 +15959,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0011031</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -16030,7 +16030,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0011032</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -16101,7 +16101,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0011033</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -16172,7 +16172,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0011033</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -16243,7 +16243,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0011034</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -16314,7 +16314,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0011034</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16385,7 +16385,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0011034</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16456,7 +16456,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0011035</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16527,7 +16527,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0011036</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16598,7 +16598,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0011037</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16673,7 +16673,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0011038</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16744,7 +16744,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0011039</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16815,7 +16815,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0011040</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16886,7 +16886,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0011041</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16957,7 +16957,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0011042</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -17028,7 +17028,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0011042</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -17099,7 +17099,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0011043</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -17170,7 +17170,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0011044</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -17245,7 +17245,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0011045</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -17316,7 +17316,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0011046</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17387,7 +17387,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0011047</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17458,7 +17458,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0011048</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17529,7 +17529,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0011049</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17604,7 +17604,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0011050</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17675,7 +17675,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0011051</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17746,7 +17746,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0011052</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17817,7 +17817,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0011053</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17888,7 +17888,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0011053</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17959,7 +17959,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0011054</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -18030,7 +18030,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0011055</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -18101,7 +18101,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0011056</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -18172,7 +18172,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0011057</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -18243,7 +18243,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0011058</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -18314,7 +18314,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0011059</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -18385,7 +18385,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0011060</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18456,7 +18456,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0011061</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18527,7 +18527,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0011062</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18598,7 +18598,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0011063</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18669,7 +18669,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0011064</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18740,7 +18740,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0011065</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18811,7 +18811,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0011066</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18882,7 +18882,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0011067</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18953,7 +18953,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0011068</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -19028,7 +19028,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0011069</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -19099,7 +19099,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0011070</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -19170,7 +19170,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0011071</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -19241,7 +19241,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0011072</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -19312,7 +19312,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0011073</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -19383,7 +19383,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0011074</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -19454,7 +19454,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0011075</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19529,7 +19529,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0011076</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19604,7 +19604,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0011077</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19675,7 +19675,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0011078</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19746,7 +19746,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0011078</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19817,7 +19817,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0011079</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19888,7 +19888,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0011080</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -19963,7 +19963,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0011081</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -20034,7 +20034,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0011082</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -20105,7 +20105,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0011083</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -20176,7 +20176,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0011084</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -20251,7 +20251,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0011085</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -20322,7 +20322,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0011086</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -20393,7 +20393,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0011087</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -20464,7 +20464,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0011088</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -20535,7 +20535,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0011089</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20610,7 +20610,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0011090</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20681,7 +20681,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0011091</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20752,7 +20752,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0011092</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20823,7 +20823,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0011093</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20894,7 +20894,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011094</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -20965,7 +20965,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0011095</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -21036,7 +21036,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0011096</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -21111,7 +21111,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0011096</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -21186,7 +21186,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0011097</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -21257,7 +21257,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0011098</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -21328,7 +21328,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0011098</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -21399,7 +21399,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0011098</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -21470,7 +21470,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0011099</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -21545,7 +21545,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0011100</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -21616,7 +21616,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0011101</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -21687,7 +21687,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0011101</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -21758,7 +21758,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0011102</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -21829,7 +21829,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0011103</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -21900,7 +21900,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0011104</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -21971,7 +21971,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011105</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -22042,7 +22042,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0011106</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -22113,7 +22113,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0011107</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -22184,7 +22184,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0011108</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -22255,7 +22255,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0011109</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -22326,7 +22326,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0011110</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -22397,7 +22397,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0011111</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -22468,7 +22468,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0011112</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -22539,7 +22539,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0011113</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -22610,7 +22610,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0011113</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -22681,7 +22681,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0011113</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -22752,7 +22752,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0011114</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -22823,7 +22823,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0011115</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -22894,7 +22894,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0011116</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -22965,7 +22965,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0011117</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -23040,7 +23040,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0011118</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -23111,7 +23111,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0011119</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -23186,7 +23186,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0011119</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -23261,7 +23261,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0011119</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -23336,7 +23336,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0011119</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -23411,7 +23411,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0011120</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -23482,7 +23482,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0011121</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -23553,7 +23553,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0011121</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -23624,7 +23624,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0011121</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -23695,7 +23695,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0011121</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -23766,7 +23766,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0011122</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -23837,7 +23837,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0011123</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -23908,7 +23908,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0011124</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -23983,7 +23983,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0011125</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -24054,7 +24054,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0011126</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -24129,7 +24129,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0011127</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -24200,7 +24200,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0011128</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -24271,7 +24271,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0011129</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -24342,7 +24342,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0011130</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -24413,7 +24413,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0011131</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -24484,7 +24484,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0011132</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -24555,7 +24555,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0011133</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -24630,7 +24630,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0011134</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -24701,7 +24701,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0011134</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -24772,7 +24772,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0011135</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -24843,7 +24843,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0011136</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -24914,7 +24914,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0011137</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -24985,7 +24985,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0011138</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -25056,7 +25056,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0011139</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -25131,7 +25131,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0011140</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -25202,7 +25202,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0011141</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -25273,7 +25273,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0011142</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -25344,7 +25344,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0011143</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -25415,7 +25415,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0011144</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -25486,7 +25486,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0011145</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -25557,7 +25557,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0011145</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -25628,7 +25628,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0011145</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -25699,7 +25699,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0011146</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -25770,7 +25770,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0011147</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -25841,7 +25841,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0011147</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -25912,7 +25912,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0011148</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -25983,7 +25983,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0011149</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -26054,7 +26054,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0011150</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -26125,7 +26125,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0011151</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -26196,7 +26196,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0011152</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -26267,7 +26267,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0011153</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -26338,7 +26338,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0011154</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -26409,7 +26409,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0011155</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -26484,7 +26484,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0011155</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -26559,7 +26559,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0011156</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -26630,7 +26630,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0011157</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -26705,7 +26705,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0011158</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -26776,7 +26776,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0011159</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -26851,7 +26851,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0011160</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -26922,7 +26922,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0011161</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -26993,7 +26993,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0011162</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -27068,7 +27068,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0011163</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -27139,7 +27139,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0011164</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -27210,7 +27210,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0011165</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -27285,7 +27285,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0011166</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -27356,7 +27356,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0011167</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -27427,7 +27427,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0011168</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -27498,7 +27498,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0011169</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -27569,7 +27569,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0011170</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -27640,7 +27640,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0011171</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -27711,7 +27711,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0011172</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -27782,7 +27782,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0011173</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -27853,7 +27853,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0011174</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -27924,7 +27924,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0011175</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -27995,7 +27995,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0011176</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -28066,7 +28066,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0011177</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -28137,7 +28137,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0011177</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -28208,7 +28208,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0011178</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -28279,7 +28279,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0011179</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -28354,7 +28354,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0011180</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -28425,7 +28425,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0011181</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -28496,7 +28496,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0011182</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -28567,7 +28567,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0011183</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -28638,7 +28638,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0011184</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -28709,7 +28709,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0011185</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -28780,7 +28780,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0011185</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -28851,7 +28851,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0011186</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -28922,7 +28922,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0011186</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -28993,7 +28993,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0011186</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -29064,7 +29064,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0011187</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -29135,7 +29135,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0011188</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -29206,7 +29206,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0011189</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -29277,7 +29277,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0011189</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -29348,7 +29348,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0011189</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -29419,7 +29419,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0011190</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -29490,7 +29490,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0011191</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -29561,7 +29561,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0011192</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -29632,7 +29632,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0011193</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -29703,7 +29703,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0011194</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -29774,7 +29774,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0011195</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -29845,7 +29845,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0011195</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -29916,7 +29916,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0011196</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -29987,7 +29987,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0011197</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -30058,7 +30058,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0011198</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -30129,7 +30129,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0011199</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -30200,7 +30200,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0011199</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -30271,7 +30271,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0011199</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -30342,7 +30342,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0011199</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -30413,7 +30413,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0011199</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -30484,7 +30484,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0011200</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -30555,7 +30555,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0011200</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -30626,7 +30626,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0011200</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -30697,7 +30697,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0011201</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -30768,7 +30768,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0011202</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -30839,7 +30839,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0011203</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -30910,7 +30910,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0011204</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -30981,7 +30981,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0011205</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -31052,7 +31052,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0011206</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -31127,7 +31127,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0011207</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -31198,7 +31198,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0011208</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -31269,7 +31269,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0011209</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -31344,7 +31344,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0011210</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -31415,7 +31415,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0011211</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -31486,7 +31486,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0011212</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -31557,7 +31557,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0011213</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -31628,7 +31628,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0011214</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -31699,7 +31699,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0011215</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -31770,7 +31770,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0011216</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -31841,7 +31841,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0011217</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -31916,7 +31916,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0011217</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -31991,7 +31991,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0011218</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -32062,7 +32062,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0011219</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -32133,7 +32133,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0011220</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -32204,7 +32204,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0011220</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -32275,7 +32275,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0011220</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -32346,7 +32346,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0011221</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -32417,7 +32417,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0011222</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -32488,7 +32488,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0011223</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -32563,7 +32563,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0011224</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -32634,7 +32634,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0011225</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -32709,7 +32709,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0011226</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -32780,7 +32780,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0011227</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -32851,7 +32851,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0011228</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -32922,7 +32922,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0011229</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -32997,7 +32997,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0011230</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -33068,7 +33068,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0011230</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -33139,7 +33139,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0011230</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -33210,7 +33210,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0011231</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -33281,7 +33281,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0011232</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -33352,7 +33352,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0011233</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -33423,7 +33423,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0011233</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -33494,7 +33494,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0011234</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -33565,7 +33565,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0011235</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -33636,7 +33636,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0011236</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -33707,7 +33707,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0011236</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -33778,7 +33778,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0011236</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -33849,7 +33849,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0011236</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -33920,7 +33920,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0011237</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -33995,7 +33995,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0011238</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -34066,7 +34066,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0011238</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -34137,7 +34137,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0011239</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -34208,7 +34208,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0011240</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -34279,7 +34279,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0011241</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -34350,7 +34350,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0011242</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -34425,7 +34425,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0011243</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -34500,7 +34500,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0011244</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -34571,7 +34571,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0011245</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -34642,7 +34642,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0011246</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -34713,7 +34713,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0011247</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -34784,7 +34784,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0011248</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -34855,7 +34855,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0011249</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -34926,7 +34926,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0011250</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -34997,7 +34997,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0011251</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -35068,7 +35068,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0011252</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -35139,7 +35139,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0011253</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -35210,7 +35210,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0011254</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -35285,7 +35285,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0011255</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -35356,7 +35356,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0011256</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -35431,7 +35431,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0011257</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -35502,7 +35502,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0011258</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -35577,7 +35577,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0011259</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -35648,7 +35648,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0011260</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -35719,7 +35719,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0011261</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -35790,7 +35790,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0011262</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -35861,7 +35861,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0011263</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -35932,7 +35932,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0011264</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -36003,7 +36003,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0011265</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -36074,7 +36074,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0011266</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -36149,7 +36149,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0011267</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -36220,7 +36220,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0011268</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -36291,7 +36291,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0011269</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -36362,7 +36362,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0011269</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -36433,7 +36433,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0011270</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -36504,7 +36504,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0011271</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -36575,7 +36575,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0011272</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -36650,7 +36650,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0011273</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -36721,7 +36721,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0011273</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -36792,7 +36792,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0011274</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -36863,7 +36863,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0011275</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -36934,7 +36934,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0011276</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -37005,7 +37005,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0011277</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -37076,7 +37076,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0011278</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -37147,7 +37147,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0011278</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -37218,7 +37218,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0011278</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -37289,7 +37289,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0011278</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -37360,7 +37360,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0011279</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -37431,7 +37431,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0011280</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -37502,7 +37502,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011281</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -37573,7 +37573,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0011282</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -37644,7 +37644,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0011283</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -37715,7 +37715,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0011284</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -37786,7 +37786,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0011285</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -37857,7 +37857,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0011286</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -37928,7 +37928,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0011287</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -37999,7 +37999,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0011287</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -38070,7 +38070,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0011288</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -38145,7 +38145,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0011289</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -38216,7 +38216,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0011290</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -38287,7 +38287,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0011291</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -38358,7 +38358,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0011292</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -38429,7 +38429,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0011293</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -38500,7 +38500,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0011294</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -38571,7 +38571,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0011295</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -38642,7 +38642,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0011296</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -38713,7 +38713,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0011296</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -38784,7 +38784,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0011297</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -38855,7 +38855,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0011298</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -38930,7 +38930,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0011299</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -39001,7 +39001,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0011299</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -39072,7 +39072,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0011299</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -39143,7 +39143,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0011300</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -39214,7 +39214,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0011301</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -39285,7 +39285,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0011302</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -39356,7 +39356,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0011303</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -39427,7 +39427,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0011304</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -39498,7 +39498,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0011305</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -39569,7 +39569,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0011306</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -39644,7 +39644,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0011307</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -39715,7 +39715,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0011308</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -39786,7 +39786,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0011308</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -39857,7 +39857,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0011309</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -39928,7 +39928,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0011309</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -39999,7 +39999,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0011309</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -40070,7 +40070,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0011310</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -40141,7 +40141,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0011311</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -40212,7 +40212,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0011312</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -40283,7 +40283,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0011313</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -40354,7 +40354,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0011314</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -40425,7 +40425,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0011314</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -40496,7 +40496,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0011315</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -40567,7 +40567,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0011316</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -40638,7 +40638,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0011317</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -40709,7 +40709,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0011317</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -40780,7 +40780,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0011318</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -40851,7 +40851,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0011319</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -40922,7 +40922,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0011319</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -40993,7 +40993,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0011319</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -41064,7 +41064,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0011320</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -41135,7 +41135,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0011321</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -41206,7 +41206,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0011322</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -41281,7 +41281,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0011323</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -41352,7 +41352,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0011324</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -41423,7 +41423,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0011325</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -41494,7 +41494,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0011326</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -41565,7 +41565,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0011327</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -41636,7 +41636,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0011328</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -41707,7 +41707,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0011329</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -41782,7 +41782,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0011330</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -41857,7 +41857,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0011331</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -41928,7 +41928,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0011332</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -41999,7 +41999,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0011333</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -42070,7 +42070,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0011334</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -42141,7 +42141,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0011334</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -42212,7 +42212,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0011335</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -42283,7 +42283,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0011336</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -42354,7 +42354,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0011337</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -42425,7 +42425,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0011338</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -42496,7 +42496,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0011339</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -42567,7 +42567,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0011340</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -42638,7 +42638,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0011341</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -42709,7 +42709,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0011341</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -42780,7 +42780,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0011341</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -42851,7 +42851,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0011342</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -42926,7 +42926,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0011343</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -42997,7 +42997,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0011344</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -43068,7 +43068,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0011344</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -43139,7 +43139,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0011345</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -43210,7 +43210,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0011346</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -43281,7 +43281,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0011347</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -43356,7 +43356,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0011348</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -43427,7 +43427,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0011349</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -43498,7 +43498,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0011349</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -43569,7 +43569,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0011350</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -43640,7 +43640,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0011351</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -43711,7 +43711,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0011352</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -43782,7 +43782,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0011352</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -43853,7 +43853,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0011353</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -43928,7 +43928,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0011354</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -43999,7 +43999,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0011355</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -44074,7 +44074,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0011356</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -44145,7 +44145,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0011357</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -44220,7 +44220,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0011358</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -44291,7 +44291,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0011359</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -44362,7 +44362,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0011359</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -44433,7 +44433,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0011360</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -44504,7 +44504,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0011361</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -44575,7 +44575,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0011362</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -44650,7 +44650,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0011363</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -44721,7 +44721,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0011363</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -44792,7 +44792,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0011363</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -44863,7 +44863,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0011364</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -44934,7 +44934,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0011365</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -45005,7 +45005,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0011366</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -45076,7 +45076,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0011367</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -45147,7 +45147,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0011368</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -45218,7 +45218,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0011369</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -45289,7 +45289,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0011370</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -45360,7 +45360,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0011371</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -45431,7 +45431,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0011372</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -45502,7 +45502,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0011373</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -45573,7 +45573,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0011374</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -45648,7 +45648,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0011375</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -45723,7 +45723,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0011376</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -45794,7 +45794,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0011377</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -45869,7 +45869,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0011378</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -45940,7 +45940,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0011379</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -46011,7 +46011,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0011379</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -46082,7 +46082,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0011380</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -46153,7 +46153,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0011381</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -46224,7 +46224,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0011382</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -46295,7 +46295,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0011383</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -46370,7 +46370,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0011384</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -46441,7 +46441,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0011385</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -46512,7 +46512,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0011386</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -46583,7 +46583,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0011387</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -46658,7 +46658,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0011388</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -46733,7 +46733,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0011389</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -46804,7 +46804,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0011390</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -46879,7 +46879,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0011391</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -46950,7 +46950,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0011392</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -47021,7 +47021,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0011393</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -47092,7 +47092,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0011393</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -47163,7 +47163,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0011394</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -47234,7 +47234,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0011395</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -47305,7 +47305,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0011396</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -47380,7 +47380,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0011397</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -47455,7 +47455,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0011398</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -47526,7 +47526,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0011399</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -47601,7 +47601,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0011400</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -47672,7 +47672,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0011401</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -47747,7 +47747,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0011402</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -47822,7 +47822,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0011403</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -47893,7 +47893,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0011404</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -47964,7 +47964,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0011404</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -48035,7 +48035,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0011405</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -48110,7 +48110,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0011406</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -48181,7 +48181,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0011407</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -48252,7 +48252,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0011408</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -48323,7 +48323,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0011409</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -48394,7 +48394,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0011410</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -48465,7 +48465,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0011411</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -48536,7 +48536,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0011412</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -48607,7 +48607,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0011413</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -48682,7 +48682,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0011414</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -48753,7 +48753,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0011415</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -48824,7 +48824,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0011416</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -48895,7 +48895,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0011417</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -48970,7 +48970,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0011418</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -49041,7 +49041,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0011419</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -49112,7 +49112,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0011420</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -49187,7 +49187,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0011421</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -49258,7 +49258,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0011422</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -49329,7 +49329,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0011423</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -49400,7 +49400,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0011424</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -49471,7 +49471,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0011425</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -49542,7 +49542,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0011426</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -49613,7 +49613,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0011427</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -49684,7 +49684,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0011428</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -49759,7 +49759,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0011428</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -49834,7 +49834,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0011429</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -49905,7 +49905,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0011429</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -49976,7 +49976,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0011430</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -50047,7 +50047,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0011431</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -50118,7 +50118,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0011432</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -50189,7 +50189,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0011433</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -50260,7 +50260,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0011434</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -50331,7 +50331,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0011435</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -50402,7 +50402,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0011436</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -50473,7 +50473,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0011437</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -50544,7 +50544,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0011438</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -50619,7 +50619,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0011439</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -50690,7 +50690,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0011440</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -50761,7 +50761,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0011441</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -50832,7 +50832,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0011442</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -50907,7 +50907,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0011443</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -50978,7 +50978,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0011443</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -51049,7 +51049,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0011443</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -51120,7 +51120,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0011444</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -51191,7 +51191,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0011444</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -51262,7 +51262,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0011444</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -51333,7 +51333,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0011445</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -51404,7 +51404,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0011446</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -51475,7 +51475,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0011447</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -51550,7 +51550,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0011448</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -51621,7 +51621,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0011449</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -51696,7 +51696,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0011450</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -51767,7 +51767,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0011451</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -51842,7 +51842,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0011452</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -51913,7 +51913,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0011453</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -51984,7 +51984,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0011454</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -52055,7 +52055,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0011455</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -52130,7 +52130,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0011456</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -52201,7 +52201,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0011457</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -52272,7 +52272,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0011458</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -52343,7 +52343,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0011458</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -52414,7 +52414,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0011459</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -52485,7 +52485,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0011460</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -52556,7 +52556,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0011461</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -52627,7 +52627,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0011462</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -52698,7 +52698,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0011463</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -52773,7 +52773,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0011464</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -52844,7 +52844,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0011464</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -52915,7 +52915,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0011465</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -52986,7 +52986,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0011466</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -53057,7 +53057,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0011467</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -53128,7 +53128,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0011468</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -53199,7 +53199,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0011469</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -53270,7 +53270,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0011470</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -53341,7 +53341,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0011471</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -53412,7 +53412,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0011472</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -53483,7 +53483,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0011473</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -53554,7 +53554,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0011474</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -53625,7 +53625,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0011475</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -53700,7 +53700,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0011476</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -53771,7 +53771,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0011477</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -53842,7 +53842,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0011478</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -53913,7 +53913,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0011479</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -53988,7 +53988,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0011479</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -54063,7 +54063,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0011480</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -54134,7 +54134,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0011481</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -54205,7 +54205,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0011481</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -54276,7 +54276,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0011482</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -54347,7 +54347,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0011482</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -54418,7 +54418,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0011483</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -54489,7 +54489,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0011484</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
